--- a/Graduate_work/example.xlsx
+++ b/Graduate_work/example.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Люди" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Люди" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,34 +488,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Евгения</t>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ж</t>
+          <t>М</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12.10.1980</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12.10.2001</t>
+          <t>10.03.2000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Евгеньевич</t>
+          <t>Верич</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Павлович</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,24 +530,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.03.2000</t>
+          <t>27.11.2000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Даниил</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Верич</t>
+          <t>Чупак</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Павлович</t>
+          <t>Едуардович</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,48 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.11.2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Лох</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Педальный</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01.01.2001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>аабб</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ж</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01.06.2006</t>
+          <t>24.06.2004</t>
         </is>
       </c>
     </row>

--- a/Graduate_work/example.xlsx
+++ b/Graduate_work/example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Людмила</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Войшнарович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.05.1991</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Graduate_work/example.xlsx
+++ b/Graduate_work/example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,92 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Давид</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Агесанович</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Омен</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.09.2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Артём </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Тихон</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Тихонович</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.10.1980</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.10.2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Тихон</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Якобчук</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Тихонович</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.05.2003</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
